--- a/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1254,7 +1254,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0971945569022937</v>
+        <v>0.09696643062439894</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1462205252553206</v>
+        <v>0.1469335150279691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1627952623875363</v>
+        <v>0.163171212044563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1429309235113787</v>
+        <v>0.1432938044925407</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1091554303624564</v>
+        <v>0.1103008627288955</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1596811138815311</v>
+        <v>0.1594408075120796</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1611916570099472</v>
+        <v>0.1620444127769199</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1831259196334649</v>
+        <v>0.1815441278029677</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1090707656389676</v>
+        <v>0.1085117034007397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.162339729533331</v>
+        <v>0.1602109195746228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1714876932727488</v>
+        <v>0.1694661489711513</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1714417650900425</v>
+        <v>0.1718376434714833</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1374121691265373</v>
+        <v>0.1345380553443973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1959820841230651</v>
+        <v>0.1979291965445565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2177881090169365</v>
+        <v>0.2169839789061143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1951020590363285</v>
+        <v>0.1965681233249189</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1464172890115691</v>
+        <v>0.1476328639098434</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2025690652666548</v>
+        <v>0.2022176757542217</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2137494209903233</v>
+        <v>0.2150760456038081</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2242108718105944</v>
+        <v>0.2245259956916537</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1354524254151648</v>
+        <v>0.1365294648531361</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1932073579460443</v>
+        <v>0.1916086025991003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2071775365691397</v>
+        <v>0.2088335010111479</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2043447907007217</v>
+        <v>0.2043199524180607</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.04925403892475672</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05889738500180058</v>
+        <v>0.05889738500180059</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02439696577842311</v>
+        <v>0.02498466381608502</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02800119595942717</v>
+        <v>0.02748190313250722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04664392429581724</v>
+        <v>0.04780610047700185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06521767710169173</v>
+        <v>0.06402032443981905</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01220515225991973</v>
+        <v>0.01199841868965322</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02289924341768337</v>
+        <v>0.02193006503560578</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03162715268932106</v>
+        <v>0.03193257993600934</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03654329963994477</v>
+        <v>0.03667951948082724</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02059558488668117</v>
+        <v>0.02032953192131477</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02747773503760015</v>
+        <v>0.02771568640026285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04216831162848596</v>
+        <v>0.04270614609906637</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05303701488737942</v>
+        <v>0.053092530325844</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04112301716477168</v>
+        <v>0.04123375768055831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04592638646843054</v>
+        <v>0.04496090039084959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06778492818052831</v>
+        <v>0.06772193192950025</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.085609524711856</v>
+        <v>0.08575307064695557</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02653732735970799</v>
+        <v>0.02584098002541655</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03942914811956241</v>
+        <v>0.03985851194443864</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05063137083097166</v>
+        <v>0.05098022086027836</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05022849031713179</v>
+        <v>0.05036722385681021</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03096496610792403</v>
+        <v>0.03091169895816934</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03997010775324061</v>
+        <v>0.03987403815423479</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05608839168017633</v>
+        <v>0.05692654728373026</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0654421012484203</v>
+        <v>0.06499801925868205</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03733008030366666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05995833685748509</v>
+        <v>0.05995833685748507</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01556035862410234</v>
@@ -969,7 +969,7 @@
         <v>0.02800690113003519</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04241960242854995</v>
+        <v>0.04241960242854993</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00877997767951557</v>
+        <v>0.009338879462887648</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01495400554178152</v>
+        <v>0.01495162189026575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02196606208052029</v>
+        <v>0.02253200898969968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04438204571139619</v>
+        <v>0.04576985716314683</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006499259347476526</v>
+        <v>0.006417072390359439</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006436798902255313</v>
+        <v>0.004885883671721992</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00954612751116013</v>
+        <v>0.009034028418506071</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01810048196061576</v>
+        <v>0.01747076042918511</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01037606309154818</v>
+        <v>0.01059177431570582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0135944785045744</v>
+        <v>0.01330179293993654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01880607817863397</v>
+        <v>0.01871561148884604</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03384511535485947</v>
+        <v>0.03384139741071863</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03197051446965373</v>
+        <v>0.03422830971586552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04820184659009032</v>
+        <v>0.05140194366985476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06019472525436876</v>
+        <v>0.06040963503267047</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07874063952533739</v>
+        <v>0.07979489465147876</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03118786632784261</v>
+        <v>0.03130844682248887</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03416733201737276</v>
+        <v>0.0328016743659923</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03223866712288721</v>
+        <v>0.03444761416749275</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03545306745765009</v>
+        <v>0.0360891199632749</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02632602895583424</v>
+        <v>0.02708078426626532</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03593836712079621</v>
+        <v>0.0354584358804982</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03880574185593424</v>
+        <v>0.040803615843868</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05237234081842621</v>
+        <v>0.05274335148134558</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07869044483637098</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07423499635466423</v>
+        <v>0.07423499635466424</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05834109188413016</v>
@@ -1105,7 +1105,7 @@
         <v>0.08117308942420193</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08034408449448124</v>
+        <v>0.08034408449448126</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06487158684550789</v>
+        <v>0.06442268557711349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07453171081944657</v>
+        <v>0.07382282963232192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07877583988048635</v>
+        <v>0.07813870199700676</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07471165235613492</v>
+        <v>0.07546149121821859</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07010664336082416</v>
+        <v>0.06940915896916552</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06798872770928163</v>
+        <v>0.06812050062725762</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07190643457556514</v>
+        <v>0.07284691009395622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0743085544240995</v>
+        <v>0.07517966828547946</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0748825511563552</v>
+        <v>0.07521013422250616</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08356406491165377</v>
+        <v>0.08289888887369187</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09417631271635167</v>
+        <v>0.09235432138661645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09619319622966564</v>
+        <v>0.0963125080189622</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09372330962491467</v>
+        <v>0.09468710023992978</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08915293471269713</v>
+        <v>0.08855683285975155</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08116301393821738</v>
+        <v>0.08121601290565217</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08533259312554106</v>
+        <v>0.08563452146062824</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08788569737328193</v>
+        <v>0.08791939955845121</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08613993614542352</v>
+        <v>0.08587477984827802</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>100278</v>
+        <v>100042</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>142394</v>
+        <v>143088</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>122804</v>
+        <v>123088</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>82549</v>
+        <v>82758</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>143552</v>
+        <v>145058</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>212939</v>
+        <v>212619</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>160331</v>
+        <v>161179</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>150184</v>
+        <v>148887</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>255971</v>
+        <v>254659</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>374575</v>
+        <v>369663</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>299933</v>
+        <v>296397</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>239617</v>
+        <v>240170</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>141771</v>
+        <v>138806</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>190853</v>
+        <v>192749</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>164288</v>
+        <v>163681</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>112680</v>
+        <v>113526</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>192555</v>
+        <v>194154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>270131</v>
+        <v>269663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>212608</v>
+        <v>213928</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>183879</v>
+        <v>184137</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>317884</v>
+        <v>320412</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>445798</v>
+        <v>442109</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>362355</v>
+        <v>365251</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>285604</v>
+        <v>285569</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41289</v>
+        <v>42284</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54883</v>
+        <v>53865</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96851</v>
+        <v>99264</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>145472</v>
+        <v>142802</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19378</v>
+        <v>19050</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>40116</v>
+        <v>38418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62884</v>
+        <v>63492</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>79325</v>
+        <v>79620</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>67555</v>
+        <v>66682</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>101994</v>
+        <v>102877</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>171401</v>
+        <v>173587</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>233430</v>
+        <v>233675</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>69596</v>
+        <v>69784</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>90017</v>
+        <v>88124</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>140748</v>
+        <v>140617</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>190958</v>
+        <v>191278</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42133</v>
+        <v>41027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69074</v>
+        <v>69826</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100670</v>
+        <v>101364</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109031</v>
+        <v>109332</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101567</v>
+        <v>101392</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>148364</v>
+        <v>148007</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>227982</v>
+        <v>231388</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>288029</v>
+        <v>286074</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4841</v>
+        <v>5150</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12013</v>
+        <v>12322</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31582</v>
+        <v>32569</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3096</v>
+        <v>3057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2946</v>
+        <v>2236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5242</v>
+        <v>4961</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13302</v>
+        <v>12839</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10665</v>
+        <v>10886</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12751</v>
+        <v>12477</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20612</v>
+        <v>20513</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>48956</v>
+        <v>48950</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17629</v>
+        <v>18874</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23153</v>
+        <v>24690</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32920</v>
+        <v>33037</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56031</v>
+        <v>56781</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14858</v>
+        <v>14916</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15637</v>
+        <v>15012</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17704</v>
+        <v>18917</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26054</v>
+        <v>26521</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27058</v>
+        <v>27834</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>33710</v>
+        <v>33260</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42532</v>
+        <v>44722</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>75755</v>
+        <v>76291</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>221483</v>
+        <v>219951</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>251740</v>
+        <v>249345</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>277267</v>
+        <v>275024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>264706</v>
+        <v>267362</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>247624</v>
+        <v>245160</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>253306</v>
+        <v>253797</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>500268</v>
+        <v>506811</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>513451</v>
+        <v>519470</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>542554</v>
+        <v>544927</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>285303</v>
+        <v>283032</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>318092</v>
+        <v>311938</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>338571</v>
+        <v>338991</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>332065</v>
+        <v>335479</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>314897</v>
+        <v>312792</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>302389</v>
+        <v>302587</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>593677</v>
+        <v>595778</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>607265</v>
+        <v>607498</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>624118</v>
+        <v>622197</v>
       </c>
     </row>
     <row r="20">
